--- a/stripped/S00050.mes.bin.xlsx
+++ b/stripped/S00050.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6266B-AEDE-48A3-8482-46A23982B7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CA9B1-EDB1-4192-B426-FA4C613D7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00050.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S00050.mes.bin.xlsx
+++ b/stripped/S00050.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CA9B1-EDB1-4192-B426-FA4C613D7535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEDD35-F621-496E-8126-F7EA64F88008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00050.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>Status</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Touya &amp; Yuki</t>
   </si>
   <si>
+    <t>^Heeey! Fujii-kun! Over here!</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>Rina</t>
   </si>
   <si>
+    <t>^Oh?^</t>
+  </si>
+  <si>
     <t>73</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
     <t>93</t>
   </si>
   <si>
+    <t>^Hey, baito-kun?^</t>
+  </si>
+  <si>
     <t>95</t>
   </si>
   <si>
@@ -215,10 +224,13 @@
     <t>105</t>
   </si>
   <si>
+    <t>^You're going to make me feel old if you go around calling\nme '-san'.^</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
-    <t>^I hate standing on ceremony, so just Rina-chan is fine.\nOr Cutie, if you insist.^</t>
+    <t>^I hate standing on ceremony, so just '-chan' is fine.^</t>
   </si>
   <si>
     <t>109</t>
@@ -754,7 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -800,7 +814,9 @@
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -809,7 +825,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -823,7 +839,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -837,7 +853,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -851,11 +867,11 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -867,7 +883,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -881,7 +897,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -897,11 +913,11 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -913,7 +929,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -927,7 +943,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -943,7 +959,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -959,11 +975,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -975,7 +991,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -991,11 +1007,11 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1007,7 +1023,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1023,7 +1039,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -1039,7 +1055,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1053,7 +1069,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1067,7 +1083,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1081,7 +1097,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1095,7 +1111,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1109,7 +1125,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1123,7 +1139,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1137,7 +1153,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1151,7 +1167,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1165,7 +1181,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1179,7 +1195,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1193,7 +1209,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1207,7 +1223,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1221,7 +1237,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1235,7 +1251,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1249,7 +1265,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1263,7 +1279,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1277,7 +1293,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1291,7 +1307,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1305,14 +1321,16 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1321,13 +1339,13 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1337,7 +1355,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1351,7 +1369,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1365,11 +1383,11 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1381,15 +1399,15 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1399,7 +1417,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1413,11 +1431,11 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1429,7 +1447,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1443,7 +1461,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1457,7 +1475,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1471,14 +1489,16 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1487,11 +1507,11 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1503,11 +1523,11 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1519,11 +1539,11 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1535,15 +1555,15 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1553,15 +1573,15 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1571,14 +1591,16 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -1587,15 +1609,15 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -1605,15 +1627,15 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -1623,11 +1645,11 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -1639,11 +1661,11 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1655,11 +1677,11 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -1671,11 +1693,11 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1687,11 +1709,11 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -1703,7 +1725,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1717,15 +1739,15 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -1735,7 +1757,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1749,11 +1771,11 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -1765,7 +1787,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1779,7 +1801,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1793,11 +1815,11 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -1809,11 +1831,11 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -1825,11 +1847,11 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -1841,7 +1863,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1855,11 +1877,11 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -1871,7 +1893,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1885,11 +1907,11 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -1901,7 +1923,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1915,7 +1937,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1929,15 +1951,15 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -1947,7 +1969,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1961,7 +1983,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1975,11 +1997,11 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -1991,11 +2013,11 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -2007,7 +2029,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2021,7 +2043,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2035,11 +2057,11 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2051,7 +2073,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2065,15 +2087,15 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -2083,11 +2105,11 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2099,11 +2121,11 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2115,7 +2137,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2129,7 +2151,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2143,7 +2165,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2157,7 +2179,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
